--- a/Join_tables/Table2.xlsx
+++ b/Join_tables/Table2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tharc\Documents\GitHub\machine_learning\Join_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1A3A08-CDEA-405B-8594-2FF9FAA5DE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF73EE67-5714-4A0D-B81C-7ECFF4DB48C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F2171884-F3FF-4AFC-BB8C-D45B3A9D3446}"/>
   </bookViews>
@@ -43,18 +43,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Cartao</t>
-  </si>
-  <si>
-    <t>Boleto</t>
-  </si>
-  <si>
-    <t>PIX</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -62,6 +50,18 @@
   </si>
   <si>
     <t>Installments</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>PayPal</t>
   </si>
 </sst>
 </file>
@@ -416,13 +416,13 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -432,13 +432,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>12</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>12</v>
